--- a/biology/Zoologie/Cuora_flavomarginata/Cuora_flavomarginata.xlsx
+++ b/biology/Zoologie/Cuora_flavomarginata/Cuora_flavomarginata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cuora flavomarginata ou Tortue-boîte à bords jaunes est une espèce de tortues de la famille des Geoemydidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cuora flavomarginata ou Tortue-boîte à bords jaunes est une espèce de tortues de la famille des Geoemydidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Chine dans les provinces du Fujian, du Henan, du Anhui, du Hubei, du Hunan, du Jiangsu, du Jiangxi, du Sichuan et du Zhejiang et à Taïwan pour la sous-espèce Cuora flavomarginata flavomarginata ;
 dans les îles Ryūkyū au Japon pour la sous-espèce Cuora flavomarginata evelynae.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tortue boîte à bords jaunes vit dans les marécages et les landes au climat subtropical et tempéré[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tortue boîte à bords jaunes vit dans les marécages et les landes au climat subtropical et tempéré.
 </t>
         </is>
       </c>
@@ -574,12 +590,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une tortue boîte asiatique plutôt terrestre et chasseuse. C'est une mauvaise nageuse. Elle mesure jusqu'à 20 cm.
 Cette tortue est facilement identifiable à ses "joues" orangé et à la bordure jaune de son plastron.
-Elle pond de 4 à 8 œufs par saison de nidification (pontes multiples)[3]. Les petits ont une longueur d'environ 4 cm.
-Elle est omnivore : elle se nourrit de fruits et de végétaux, d'insectes, d'escargots et de vers[4]...
+Elle pond de 4 à 8 œufs par saison de nidification (pontes multiples). Les petits ont une longueur d'environ 4 cm.
+Elle est omnivore : elle se nourrit de fruits et de végétaux, d'insectes, d'escargots et de vers...
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon TFTSG  (23 novembre 2012)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon TFTSG  (23 novembre 2012) :
 Cuora flavomarginata evelynae Ernst &amp; Lovich, 1990
 Cuora flavomarginata flavomarginata (Gray, 1863)</t>
         </is>
@@ -640,7 +660,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cuora evelynae fut un temps décrite comme espèce distincte.
 </t>
@@ -671,7 +693,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Ernst &amp; Lovich, 1990 : A new species of Cuora (Reptilia: Testudines: Emydidae) from the Ryukyu Islands. Proceedings of the Biological Society of Washington   , vol. 103, no 1, p. 26-34.
 Gray, 1863 : Observations on the box tortoises, with the descriptions of three new Asiatic species. Proceedings of the Zoological Society of London, vol. 1863, p. 173-179 (texte intégral).</t>
